--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3.25</v>
+        <v>2.42</v>
       </c>
       <c r="H2" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>1.08</v>
       </c>
       <c r="K2" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
         <v>3.2</v>
@@ -674,73 +674,73 @@
         <v>1.78</v>
       </c>
       <c r="P2" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W2" t="n">
+        <v>27</v>
+      </c>
+      <c r="X2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE2" t="n">
         <v>9</v>
       </c>
-      <c r="U2" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="V2" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="W2" t="n">
-        <v>45</v>
-      </c>
-      <c r="X2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AF2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AH2" t="n">
         <v>40</v>
       </c>
-      <c r="Z2" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>700</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
       <c r="AI2" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>xWQ9onU0</t>
+          <t>rDk5pyiM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -750,59 +750,119 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COSTA RICA - PRIMERA DIVISION</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alajuelense</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Saprissa</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
+          <t>Willem II</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10</v>
+      </c>
+      <c r="U3" t="n">
+        <v>13</v>
+      </c>
+      <c r="V3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W3" t="n">
+        <v>23</v>
+      </c>
+      <c r="X3" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ct3rLqem</t>
+          <t>xWQ9onU0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -812,59 +872,117 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ECUADOR - SERIE B</t>
+          <t>COSTA RICA - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Leones del Norte</t>
+          <t>Alajuelense</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>22 de Julio</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+          <t>Saprissa</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>8</v>
+      </c>
+      <c r="V4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>110</v>
+      </c>
       <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
+      <c r="AE4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vgfaH1fC</t>
+          <t>Ct3rLqem</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -874,7 +992,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -884,12 +1002,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Imbabura</t>
+          <t>Leones del Norte</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ind. Juniors</t>
+          <t>22 de Julio</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -926,7 +1044,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zanBfRCi</t>
+          <t>vgfaH1fC</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -936,119 +1054,59 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FINLAND - VEIKKAUSLIIGA</t>
+          <t>ECUADOR - SERIE B</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ilves</t>
+          <t>Imbabura</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>KuPS</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K6" t="n">
-        <v>13</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>10</v>
-      </c>
-      <c r="U6" t="n">
-        <v>13</v>
-      </c>
-      <c r="V6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="W6" t="n">
-        <v>23</v>
-      </c>
-      <c r="X6" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>26</v>
-      </c>
+          <t>Ind. Juniors</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>j3KesXsC</t>
+          <t>zanBfRCi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1058,59 +1116,119 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FINLAND - YKKOSLIIGA</t>
+          <t>FINLAND - VEIKKAUSLIIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>JIPPO</t>
+          <t>Ilves</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Klubi 04</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
+          <t>KuPS</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10</v>
+      </c>
+      <c r="U7" t="n">
+        <v>13</v>
+      </c>
+      <c r="V7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>23</v>
+      </c>
+      <c r="X7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GplEaEct</t>
+          <t>j3KesXsC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1130,12 +1248,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KaPa</t>
+          <t>JIPPO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SalPa</t>
+          <t>Klubi 04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -1172,7 +1290,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lbnMchSh</t>
+          <t>GplEaEct</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1192,12 +1310,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PK-35</t>
+          <t>KaPa</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>JaPS</t>
+          <t>SalPa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1234,7 +1352,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pQuVeWd5</t>
+          <t>lbnMchSh</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1254,12 +1372,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SJK Akatemia</t>
+          <t>PK-35</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ekenas</t>
+          <t>JaPS</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -1296,7 +1414,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>xKI3uBCO</t>
+          <t>pQuVeWd5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1316,12 +1434,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>SJK Akatemia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lahti</t>
+          <t>Ekenas</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -1358,7 +1476,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jLHKe4LM</t>
+          <t>xKI3uBCO</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1368,22 +1486,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
+          <t>FINLAND - YKKOSLIIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Gagra</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>FC Gareji Sagarejo</t>
+          <t>Lahti</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1420,7 +1538,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MuQ3anMc</t>
+          <t>jLHKe4LM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1430,7 +1548,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1440,12 +1558,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Telavi</t>
+          <t>Gagra</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dinamo Batumi</t>
+          <t>FC Gareji Sagarejo</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -1482,7 +1600,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zkB77Sdl</t>
+          <t>MuQ3anMc</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1492,119 +1610,59 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>GEORGIA - CRYSTALBET EROVNULI LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Telavi</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spezia</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K14" t="n">
-        <v>9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="T14" t="n">
-        <v>9</v>
-      </c>
-      <c r="U14" t="n">
-        <v>15</v>
-      </c>
-      <c r="V14" t="n">
-        <v>11</v>
-      </c>
-      <c r="W14" t="n">
-        <v>29</v>
-      </c>
-      <c r="X14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>29</v>
-      </c>
+          <t>Dinamo Batumi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>212O3pdD</t>
+          <t>zkB77Sdl</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1624,40 +1682,40 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Juve Stabia</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Cremonese</t>
+          <t>Spezia</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -1678,7 +1736,7 @@
         <v>15</v>
       </c>
       <c r="V15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W15" t="n">
         <v>34</v>
@@ -1687,13 +1745,13 @@
         <v>26</v>
       </c>
       <c r="Y15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="n">
         <v>15</v>
@@ -1714,19 +1772,19 @@
         <v>9.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
         <v>21</v>
       </c>
-      <c r="AI15" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4hJqgnkg</t>
+          <t>212O3pdD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1736,59 +1794,119 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Juve Stabia</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Atalanta U23</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+          <t>Cremonese</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K16" t="n">
+        <v>10</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="U16" t="n">
+        <v>17</v>
+      </c>
+      <c r="V16" t="n">
+        <v>12</v>
+      </c>
+      <c r="W16" t="n">
+        <v>34</v>
+      </c>
+      <c r="X16" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>YXA0k4lI</t>
+          <t>4hJqgnkg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1808,49 +1926,109 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>L.R. Vicenza</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Crotone</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+          <t>Atalanta U23</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="K17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>15</v>
+      </c>
+      <c r="X17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CvbS333B</t>
+          <t>YXA0k4lI</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1870,49 +2048,107 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>L.R. Vicenza</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vis Pesaro</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
+          <t>Crotone</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T18" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="U18" t="n">
+        <v>8</v>
+      </c>
+      <c r="V18" t="n">
+        <v>9</v>
+      </c>
+      <c r="W18" t="n">
+        <v>16</v>
+      </c>
+      <c r="X18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>120</v>
+      </c>
       <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="AE18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ra6B7o4n</t>
+          <t>CvbS333B</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1932,49 +2168,107 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+          <t>Vis Pesaro</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>9</v>
+      </c>
+      <c r="W19" t="n">
+        <v>14</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>120</v>
+      </c>
       <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
+      <c r="AE19" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ve5Je5Ja</t>
+          <t>ra6B7o4n</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1984,119 +2278,117 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>JAPAN - J1 LEAGUE</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Kawasaki Frontale</t>
+          <t>Ternana</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Urawa Reds</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="H20" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="L20" t="n">
-        <v>1.3</v>
+        <v>1.47</v>
       </c>
       <c r="M20" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N20" t="n">
-        <v>1.98</v>
+        <v>2.37</v>
       </c>
       <c r="O20" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="P20" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="R20" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>7.5</v>
+        <v>5.1</v>
       </c>
       <c r="U20" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="V20" t="n">
         <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="X20" t="n">
         <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>251</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG20" t="n">
         <v>17</v>
       </c>
-      <c r="AG20" t="n">
-        <v>12</v>
-      </c>
       <c r="AH20" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AI20" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>zNbSgqlC</t>
+          <t>ve5Je5Ja</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2116,22 +2408,22 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Yokohama F. Marinos</t>
+          <t>Kawasaki Frontale</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vissel Kobe</t>
+          <t>Urawa Reds</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I21" t="n">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2152,10 +2444,10 @@
         <v>1.85</v>
       </c>
       <c r="P21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R21" t="n">
         <v>1.8</v>
@@ -2164,22 +2456,22 @@
         <v>1.95</v>
       </c>
       <c r="T21" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="U21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>9</v>
+      </c>
+      <c r="W21" t="n">
         <v>17</v>
       </c>
-      <c r="V21" t="n">
-        <v>12</v>
-      </c>
-      <c r="W21" t="n">
-        <v>41</v>
-      </c>
       <c r="X21" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
         <v>11</v>
@@ -2197,28 +2489,28 @@
         <v>251</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AJ21" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>00M9VOog</t>
+          <t>zNbSgqlC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2228,59 +2520,119 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LATVIA - VIRSLIGA</t>
+          <t>JAPAN - J1 LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Grobina</t>
+          <t>Yokohama F. Marinos</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tukums 2000</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
+          <t>Vissel Kobe</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T22" t="n">
+        <v>11</v>
+      </c>
+      <c r="U22" t="n">
+        <v>19</v>
+      </c>
+      <c r="V22" t="n">
+        <v>13</v>
+      </c>
+      <c r="W22" t="n">
+        <v>41</v>
+      </c>
+      <c r="X22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6cPHT2G5</t>
+          <t>00M9VOog</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2290,7 +2642,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2300,12 +2652,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Super Nova</t>
+          <t>Grobina</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jelgava</t>
+          <t>Tukums 2000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -2342,7 +2694,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>WUDOIYuA</t>
+          <t>6cPHT2G5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2352,114 +2704,54 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PARAGUAY - COPA DE PRIMERA</t>
+          <t>LATVIA - VIRSLIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ameliano</t>
+          <t>Super Nova</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="T24" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="U24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="V24" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="W24" t="n">
-        <v>45</v>
-      </c>
-      <c r="X24" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>900</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>35</v>
-      </c>
+          <t>Jelgava</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2474,7 +2766,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2493,98 +2785,98 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.77</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>2.57</v>
+        <v>2.8</v>
       </c>
       <c r="J25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K25" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N25" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
         <v>1.62</v>
       </c>
       <c r="T25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="U25" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W25" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="Y25" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB25" t="n">
         <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>nJPbKoHE</t>
+          <t>WUDOIYuA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2594,7 +2886,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2604,107 +2896,109 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Olimpia Asuncion</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Libertad Asuncion</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.77</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.52</v>
+        <v>1.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="L26" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M26" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="N26" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="O26" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="P26" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="R26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="T26" t="n">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="U26" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="V26" t="n">
-        <v>11.5</v>
+        <v>15</v>
       </c>
       <c r="W26" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="X26" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD26" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1250</v>
+      </c>
       <c r="AE26" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.75</v>
+        <v>7.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EB42CKiI</t>
+          <t>2Vke0QPr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2714,59 +3008,117 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Pastoreo</t>
+          <t>Atl. Tembetary</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Sol de America</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T27" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U27" t="n">
+        <v>13</v>
+      </c>
+      <c r="V27" t="n">
+        <v>12</v>
+      </c>
+      <c r="W27" t="n">
+        <v>34</v>
+      </c>
+      <c r="X27" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>67</v>
+      </c>
       <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
+      <c r="AE27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hdGgEtN5</t>
+          <t>nJPbKoHE</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2776,59 +3128,117 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>PARAGUAY - COPA DE PRIMERA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sp. Carapegua</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
+          <t>Libertad Asuncion</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7</v>
+      </c>
+      <c r="U28" t="n">
+        <v>12</v>
+      </c>
+      <c r="V28" t="n">
+        <v>11</v>
+      </c>
+      <c r="W28" t="n">
+        <v>26</v>
+      </c>
+      <c r="X28" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>67</v>
+      </c>
       <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="AE28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOkXvylT</t>
+          <t>EB42CKiI</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2838,119 +3248,59 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:10</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Pastoreo</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K29" t="n">
-        <v>29</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="M29" t="n">
-        <v>7</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="O29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2</v>
-      </c>
-      <c r="T29" t="n">
-        <v>13</v>
-      </c>
-      <c r="U29" t="n">
-        <v>9</v>
-      </c>
-      <c r="V29" t="n">
-        <v>10</v>
-      </c>
-      <c r="W29" t="n">
-        <v>9</v>
-      </c>
-      <c r="X29" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>151</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>101</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>41</v>
-      </c>
+          <t>Sol de America</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AcYUmEQq</t>
+          <t>hdGgEtN5</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2960,119 +3310,59 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Al Kholood</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Al Fayha</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="K30" t="n">
-        <v>10</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N30" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="U30" t="n">
-        <v>12</v>
-      </c>
-      <c r="V30" t="n">
-        <v>10</v>
-      </c>
-      <c r="W30" t="n">
-        <v>23</v>
-      </c>
-      <c r="X30" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>29</v>
-      </c>
+          <t>Sp. Carapegua</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hthbgz3M</t>
+          <t>SOkXvylT</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3082,7 +3372,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:10</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3092,22 +3382,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Al Hilal</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>7</v>
+        <v>1.22</v>
       </c>
       <c r="H31" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="I31" t="n">
-        <v>1.3</v>
+        <v>8.5</v>
       </c>
       <c r="J31" t="n">
         <v>1.01</v>
@@ -3134,67 +3424,67 @@
         <v>4.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T31" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="U31" t="n">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="V31" t="n">
+        <v>10</v>
+      </c>
+      <c r="W31" t="n">
+        <v>9</v>
+      </c>
+      <c r="X31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y31" t="n">
         <v>21</v>
-      </c>
-      <c r="W31" t="n">
-        <v>81</v>
-      </c>
-      <c r="X31" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>41</v>
       </c>
       <c r="Z31" t="n">
         <v>29</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>101</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>41</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Wdr2y9u2</t>
+          <t>AcYUmEQq</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3204,119 +3494,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Falkenberg</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Trelleborg</t>
+          <t>Al Fayha</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="J32" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M32" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="O32" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T32" t="n">
         <v>8.5</v>
       </c>
       <c r="U32" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V32" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="W32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y32" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
         <v>13</v>
       </c>
       <c r="AC32" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AE32" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AF32" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AH32" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>tnhvAToR</t>
+          <t>hthbgz3M</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3326,119 +3616,119 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Orgryte</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sandviken</t>
+          <t>Al Hilal</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.15</v>
+        <v>7</v>
       </c>
       <c r="H33" t="n">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="L33" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="M33" t="n">
-        <v>3.95</v>
+        <v>7</v>
       </c>
       <c r="N33" t="n">
-        <v>1.65</v>
+        <v>1.3</v>
       </c>
       <c r="O33" t="n">
-        <v>2.12</v>
+        <v>3.4</v>
       </c>
       <c r="P33" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S33" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="T33" t="n">
+        <v>29</v>
+      </c>
+      <c r="U33" t="n">
+        <v>41</v>
+      </c>
+      <c r="V33" t="n">
+        <v>21</v>
+      </c>
+      <c r="W33" t="n">
+        <v>81</v>
+      </c>
+      <c r="X33" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>41</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>126</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF33" t="n">
         <v>9.5</v>
       </c>
-      <c r="U33" t="n">
-        <v>12</v>
-      </c>
-      <c r="V33" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="W33" t="n">
-        <v>22</v>
-      </c>
-      <c r="X33" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>250</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AI33" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AJ33" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>p08yj8fe</t>
+          <t>Wdr2y9u2</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3458,109 +3748,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Utsikten</t>
+          <t>Falkenberg</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Orebro</t>
+          <t>Trelleborg</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J34" t="n">
         <v>1.05</v>
       </c>
       <c r="K34" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="L34" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N34" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O34" t="n">
         <v>1.9</v>
       </c>
       <c r="P34" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="S34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
         <v>8</v>
       </c>
       <c r="U34" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="V34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W34" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="X34" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y34" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z34" t="n">
-        <v>7.6</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB34" t="n">
         <v>13</v>
       </c>
       <c r="AC34" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AE34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AI34" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>YLlWBkHE</t>
+          <t>tnhvAToR</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3580,109 +3870,109 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Vasteras SK</t>
+          <t>Orgryte</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Sandviken</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.72</v>
+        <v>1.95</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>7.7</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="M35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="Q35" t="n">
         <v>3.4</v>
       </c>
-      <c r="N35" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.77</v>
-      </c>
       <c r="R35" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="S35" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="T35" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="U35" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="V35" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W35" t="n">
+        <v>17</v>
+      </c>
+      <c r="X35" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE35" t="n">
         <v>13</v>
       </c>
-      <c r="X35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF35" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH35" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AJ35" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>xbyfCsln</t>
+          <t>p08yj8fe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3692,116 +3982,360 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>La Guaira</t>
+          <t>Utsikten</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Universidad Central</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
+          <t>Orebro</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K36" t="n">
+        <v>13</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="n">
+        <v>8</v>
+      </c>
+      <c r="U36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W36" t="n">
+        <v>17</v>
+      </c>
+      <c r="X36" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>201</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>YLlWBkHE</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SWEDEN - SUPERETTAN</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Vasteras SK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Ostersund</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K37" t="n">
+        <v>12</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="U37" t="n">
+        <v>8</v>
+      </c>
+      <c r="V37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W37" t="n">
+        <v>13</v>
+      </c>
+      <c r="X37" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>251</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>xbyfCsln</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>21/05/2025</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>19:00</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>VENEZUELA - LIGA FUTVE</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>La Guaira</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Universidad Central</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>YPU2ALIb</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>21/05/2025</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>21:30</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>Anzoategui FC</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Portuguesa</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -647,94 +647,94 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.42</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I2" t="n">
         <v>3.2</v>
       </c>
-      <c r="I2" t="n">
-        <v>3.1</v>
-      </c>
       <c r="J2" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="M2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N2" t="n">
         <v>2.05</v>
       </c>
       <c r="O2" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="R2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
         <v>7.5</v>
       </c>
       <c r="U2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="W2" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="X2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y2" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="AB2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>600</v>
+        <v>251</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -769,46 +769,46 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="O3" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
         <v>13</v>
@@ -820,28 +820,28 @@
         <v>23</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
       </c>
       <c r="AB3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
         <v>41</v>
       </c>
       <c r="AD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF3" t="n">
         <v>15</v>
@@ -891,92 +891,92 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
       </c>
       <c r="K4" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M4" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>5.6</v>
+        <v>6.5</v>
       </c>
       <c r="U4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="W4" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH4" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
@@ -1010,36 +1010,90 @@
           <t>22 de Julio</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.5</v>
+      </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T5" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U5" t="n">
+        <v>6</v>
+      </c>
+      <c r="V5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>250</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>120</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1072,36 +1126,90 @@
           <t>Ind. Juniors</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="V6" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W6" t="n">
+        <v>24</v>
+      </c>
+      <c r="X6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>150</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
+      <c r="AE6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1256,36 +1364,88 @@
           <t>Klubi 04</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I8" t="n">
+        <v>4.1</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.85</v>
+      </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1318,36 +1478,88 @@
           <t>SalPa</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.25</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2.07</v>
+      </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="T9" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="V9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>18</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1380,36 +1592,84 @@
           <t>JaPS</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.1</v>
+      </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2.18</v>
+      </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="T10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V10" t="n">
+        <v>8</v>
+      </c>
+      <c r="W10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="X10" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>350</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1442,36 +1702,84 @@
           <t>Ekenas</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.53</v>
+      </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="N11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2.45</v>
+      </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T11" t="n">
+        <v>22</v>
+      </c>
+      <c r="U11" t="n">
+        <v>40</v>
+      </c>
+      <c r="V11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="W11" t="n">
+        <v>100</v>
+      </c>
+      <c r="X11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>250</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1504,36 +1812,88 @@
           <t>Lahti</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.83</v>
+      </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="T12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V12" t="n">
+        <v>9</v>
+      </c>
+      <c r="W12" t="n">
+        <v>23</v>
+      </c>
+      <c r="X12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1691,19 +2051,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
         <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L15" t="n">
         <v>1.36</v>
@@ -1712,10 +2072,10 @@
         <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P15" t="n">
         <v>1.44</v>
@@ -1742,7 +2102,7 @@
         <v>34</v>
       </c>
       <c r="X15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y15" t="n">
         <v>41</v>
@@ -1763,7 +2123,7 @@
         <v>301</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF15" t="n">
         <v>11</v>
@@ -1772,7 +2132,7 @@
         <v>9.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
         <v>21</v>
@@ -1813,19 +2173,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -1834,28 +2194,28 @@
         <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="P16" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S16" t="n">
         <v>1.8</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.95</v>
-      </c>
       <c r="T16" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="U16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V16" t="n">
         <v>12</v>
@@ -1864,16 +2224,16 @@
         <v>34</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AB16" t="n">
         <v>15</v>
@@ -1882,16 +2242,16 @@
         <v>51</v>
       </c>
       <c r="AD16" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AE16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF16" t="n">
         <v>10</v>
       </c>
       <c r="AG16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AH16" t="n">
         <v>21</v>
@@ -1935,25 +2295,25 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.83</v>
+        <v>2.27</v>
       </c>
       <c r="H17" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="L17" t="n">
         <v>1.38</v>
       </c>
       <c r="M17" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="N17" t="n">
         <v>2.12</v>
@@ -1968,61 +2328,61 @@
         <v>2.42</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>6.1</v>
+        <v>6.9</v>
       </c>
       <c r="U17" t="n">
-        <v>7.9</v>
+        <v>10.5</v>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="X17" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
         <v>32</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH17" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AI17" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2060,77 +2420,77 @@
         <v>1.95</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
         <v>3.8</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K18" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M18" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="N18" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="P18" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="T18" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V18" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W18" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="X18" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Z18" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>13.5</v>
@@ -2142,7 +2502,7 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19">
@@ -2177,92 +2537,92 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K19" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="M19" t="n">
-        <v>2.57</v>
+        <v>2.7</v>
       </c>
       <c r="N19" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S19" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="T19" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="U19" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="V19" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W19" t="n">
         <v>14</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI19" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ19" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -2297,67 +2657,67 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="N20" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="P20" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="U20" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W20" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AB20" t="n">
         <v>22</v>
@@ -2367,19 +2727,19 @@
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>9.75</v>
+        <v>10.75</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ20" t="n">
         <v>80</v>
@@ -2417,13 +2777,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2444,10 +2804,10 @@
         <v>1.85</v>
       </c>
       <c r="P21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>1.8</v>
@@ -2459,13 +2819,13 @@
         <v>7.5</v>
       </c>
       <c r="U21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
         <v>17</v>
@@ -2477,7 +2837,7 @@
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -2614,7 +2974,7 @@
         <v>7.5</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
         <v>8.5</v>
@@ -3027,19 +3387,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I27" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L27" t="n">
         <v>1.44</v>
@@ -3066,19 +3426,19 @@
         <v>1.67</v>
       </c>
       <c r="T27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U27" t="n">
         <v>13</v>
       </c>
       <c r="V27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X27" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y27" t="n">
         <v>41</v>
@@ -3087,7 +3447,7 @@
         <v>7</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB27" t="n">
         <v>19</v>
@@ -3100,7 +3460,7 @@
         <v>6.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
         <v>10</v>
@@ -3147,13 +3507,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J28" t="n">
         <v>1.1</v>
@@ -3162,10 +3522,10 @@
         <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N28" t="n">
         <v>2.5</v>
@@ -3186,19 +3546,19 @@
         <v>1.67</v>
       </c>
       <c r="T28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="U28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V28" t="n">
         <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X28" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y28" t="n">
         <v>41</v>
@@ -3217,19 +3577,19 @@
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG28" t="n">
         <v>12</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
         <v>41</v>
@@ -3403,7 +3763,7 @@
         <v>1.01</v>
       </c>
       <c r="K31" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
         <v>1.08</v>
@@ -3647,7 +4007,7 @@
         <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
         <v>1.08</v>
@@ -3879,13 +4239,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
         <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -3894,16 +4254,16 @@
         <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M35" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="N35" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O35" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="P35" t="n">
         <v>1.3</v>
@@ -3912,10 +4272,10 @@
         <v>3.4</v>
       </c>
       <c r="R35" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S35" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T35" t="n">
         <v>9.5</v>
@@ -3924,10 +4284,10 @@
         <v>11</v>
       </c>
       <c r="V35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
@@ -3948,22 +4308,22 @@
         <v>41</v>
       </c>
       <c r="AD35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE35" t="n">
         <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ35" t="n">
         <v>29</v>
@@ -4001,19 +4361,19 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J36" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K36" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L36" t="n">
         <v>1.25</v>
@@ -4022,10 +4382,10 @@
         <v>3.75</v>
       </c>
       <c r="N36" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P36" t="n">
         <v>1.36</v>
@@ -4043,22 +4403,22 @@
         <v>8</v>
       </c>
       <c r="U36" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="V36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W36" t="n">
+        <v>19</v>
+      </c>
+      <c r="X36" t="n">
         <v>17</v>
       </c>
-      <c r="X36" t="n">
-        <v>15</v>
-      </c>
       <c r="Y36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA36" t="n">
         <v>7</v>
@@ -4073,19 +4433,19 @@
         <v>201</v>
       </c>
       <c r="AE36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG36" t="n">
         <v>12</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>13</v>
       </c>
       <c r="AH36" t="n">
         <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ36" t="n">
         <v>34</v>
@@ -4244,36 +4604,88 @@
           <t>Universidad Central</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H38" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.65</v>
+      </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.72</v>
+      </c>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T38" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U38" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="V38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W38" t="n">
+        <v>16</v>
+      </c>
+      <c r="X38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -4306,36 +4718,94 @@
           <t>Portuguesa</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="K39" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="U39" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="V39" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W39" t="n">
+        <v>14</v>
+      </c>
+      <c r="X39" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>200</v>
+      </c>
       <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+      <c r="AE39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -656,10 +656,10 @@
         <v>3.2</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I9" t="n">
         <v>3.25</v>
@@ -1490,7 +1490,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
         <v>3.65</v>
@@ -1528,10 +1528,10 @@
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1716,10 +1716,10 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="O11" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1760,10 +1760,10 @@
         <v>40</v>
       </c>
       <c r="AD11" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE11" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
         <v>9.25</v>
@@ -2678,7 +2678,7 @@
         <v>2.7</v>
       </c>
       <c r="N20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="O20" t="n">
         <v>1.6</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>27</v>
@@ -2742,7 +2742,7 @@
         <v>65</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21">
@@ -3873,13 +3873,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H32" t="n">
         <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -3945,7 +3945,7 @@
         <v>500</v>
       </c>
       <c r="AE32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF32" t="n">
         <v>15</v>
@@ -3960,7 +3960,7 @@
         <v>23</v>
       </c>
       <c r="AJ32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33">
@@ -4495,7 +4495,7 @@
         <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L37" t="n">
         <v>1.25</v>
@@ -4719,92 +4719,92 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I39" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="K39" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="L39" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="M39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N39" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="O39" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P39" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="S39" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="T39" t="n">
-        <v>4.55</v>
+        <v>4.35</v>
       </c>
       <c r="U39" t="n">
         <v>6.7</v>
       </c>
       <c r="V39" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W39" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="X39" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y39" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Z39" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AA39" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AC39" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF39" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG39" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AH39" t="n">
         <v>110</v>
       </c>
       <c r="AI39" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ39" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -1813,13 +1813,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I12" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1838,22 +1838,22 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="T12" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="U12" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="V12" t="n">
         <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X12" t="n">
         <v>17.5</v>
@@ -1862,28 +1862,28 @@
         <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD12" t="n">
         <v>400</v>
       </c>
       <c r="AE12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
         <v>35</v>
@@ -2173,19 +2173,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
         <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J16" t="n">
         <v>1.07</v>
       </c>
       <c r="K16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L16" t="n">
         <v>1.36</v>
@@ -2236,7 +2236,7 @@
         <v>6.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC16" t="n">
         <v>51</v>
@@ -2260,7 +2260,7 @@
         <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
@@ -2657,13 +2657,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I20" t="n">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2675,13 +2675,13 @@
         <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2690,59 +2690,59 @@
         <v>2.42</v>
       </c>
       <c r="R20" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="S20" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="U20" t="n">
-        <v>6.6</v>
+        <v>6.1</v>
       </c>
       <c r="V20" t="n">
         <v>8.75</v>
       </c>
       <c r="W20" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="X20" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z20" t="n">
         <v>6.4</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
         <v>150</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AI20" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AJ20" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -3751,10 +3751,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
         <v>8.5</v>
@@ -3763,19 +3763,19 @@
         <v>1.01</v>
       </c>
       <c r="K31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L31" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O31" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P31" t="n">
         <v>1.17</v>
@@ -3784,10 +3784,10 @@
         <v>4.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
         <v>13</v>
@@ -3814,7 +3814,7 @@
         <v>15</v>
       </c>
       <c r="AB31" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC31" t="n">
         <v>51</v>
@@ -3823,7 +3823,7 @@
         <v>151</v>
       </c>
       <c r="AE31" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF31" t="n">
         <v>51</v>
@@ -4239,10 +4239,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
         <v>3.3</v>
@@ -4251,37 +4251,37 @@
         <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L35" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="M35" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O35" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="P35" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="T35" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
@@ -4296,37 +4296,37 @@
         <v>21</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
         <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AD35" t="n">
         <v>126</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG35" t="n">
         <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="n">
         <v>23</v>
       </c>
       <c r="AJ35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
@@ -4361,49 +4361,49 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I36" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="J36" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K36" t="n">
+        <v>13</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U36" t="n">
         <v>11</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>8</v>
-      </c>
-      <c r="U36" t="n">
-        <v>10</v>
       </c>
       <c r="V36" t="n">
         <v>9</v>
@@ -4412,31 +4412,31 @@
         <v>19</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
         <v>41</v>
       </c>
       <c r="AD36" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AE36" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
         <v>12</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -1011,88 +1011,88 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>2.18</v>
+        <v>2.52</v>
       </c>
       <c r="N5" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="P5" t="n">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="S5" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="T5" t="n">
-        <v>4.45</v>
+        <v>4.9</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="V5" t="n">
+        <v>9</v>
+      </c>
+      <c r="W5" t="n">
         <v>9.5</v>
       </c>
-      <c r="W5" t="n">
-        <v>11.5</v>
-      </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="Y5" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>9.75</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AI5" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -1127,88 +1127,88 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.37</v>
+        <v>2.22</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="N6" t="n">
-        <v>2.47</v>
+        <v>2.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T6" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V6" t="n">
         <v>9.75</v>
       </c>
-      <c r="V6" t="n">
-        <v>10.25</v>
-      </c>
       <c r="W6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC6" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="n">
         <v>35</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7">
@@ -1368,38 +1368,38 @@
         <v>1.72</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="O8" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="T8" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="U8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V8" t="n">
         <v>8.25</v>
@@ -1411,40 +1411,40 @@
         <v>13.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Z8" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="n">
         <v>500</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF8" t="n">
         <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -1593,28 +1593,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H10" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="I10" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O10" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S10" t="n">
         <v>2.05</v>
@@ -1629,34 +1629,34 @@
         <v>8</v>
       </c>
       <c r="W10" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="X10" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AA10" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AD10" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AE10" t="n">
         <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AG10" t="n">
         <v>16.5</v>
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.15</v>
       </c>
       <c r="I11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1719,27 +1719,27 @@
         <v>1.44</v>
       </c>
       <c r="O11" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="T11" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="U11" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="V11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="W11" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X11" t="n">
         <v>40</v>
@@ -1748,31 +1748,31 @@
         <v>35</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AB11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC11" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AD11" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AG11" t="n">
         <v>8.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>11</v>
@@ -1926,36 +1926,84 @@
           <t>FC Gareji Sagarejo</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+      <c r="G13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.4</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.47</v>
+      </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="U13" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="W13" t="n">
+        <v>15</v>
+      </c>
+      <c r="X13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1988,36 +2036,82 @@
           <t>Dinamo Batumi</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+      <c r="G14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.1</v>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.3</v>
+      </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="U14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W14" t="n">
+        <v>32</v>
+      </c>
+      <c r="X14" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>70</v>
+      </c>
       <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
+      <c r="AE14" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2051,43 +2145,43 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
         <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K15" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N15" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P15" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="S15" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="T15" t="n">
         <v>9</v>
@@ -2096,7 +2190,7 @@
         <v>15</v>
       </c>
       <c r="V15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="W15" t="n">
         <v>34</v>
@@ -2108,7 +2202,7 @@
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2120,13 +2214,13 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AE15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG15" t="n">
         <v>9.5</v>
@@ -2295,13 +2389,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2417,13 +2511,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="H18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J18" t="n">
         <v>1.09</v>
@@ -2537,13 +2631,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J19" t="n">
         <v>1.08</v>
@@ -2657,13 +2751,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H20" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2777,13 +2871,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.5</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.4</v>
       </c>
       <c r="J21" t="n">
         <v>1.05</v>
@@ -2819,13 +2913,13 @@
         <v>7.5</v>
       </c>
       <c r="U21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="X21" t="n">
         <v>17</v>
@@ -2837,7 +2931,7 @@
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB21" t="n">
         <v>15</v>
@@ -2852,7 +2946,7 @@
         <v>10</v>
       </c>
       <c r="AF21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -2899,13 +2993,13 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H22" t="n">
         <v>3.7</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.6</v>
-      </c>
       <c r="I22" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J22" t="n">
         <v>1.05</v>
@@ -2941,7 +3035,7 @@
         <v>11</v>
       </c>
       <c r="U22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="V22" t="n">
         <v>13</v>
@@ -2980,7 +3074,7 @@
         <v>8.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -3020,36 +3114,80 @@
           <t>Tukums 2000</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.67</v>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.02</v>
+      </c>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U23" t="n">
+        <v>11</v>
+      </c>
+      <c r="V23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>20</v>
+      </c>
+      <c r="X23" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>175</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3082,36 +3220,84 @@
           <t>Jelgava</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.45</v>
+      </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
+      <c r="N24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.5</v>
+      </c>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>13</v>
+      </c>
+      <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3507,13 +3693,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H28" t="n">
         <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J28" t="n">
         <v>1.1</v>
@@ -3555,7 +3741,7 @@
         <v>11</v>
       </c>
       <c r="W28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X28" t="n">
         <v>23</v>
@@ -3570,26 +3756,26 @@
         <v>6</v>
       </c>
       <c r="AB28" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
         <v>67</v>
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF28" t="n">
         <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
         <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
         <v>41</v>
@@ -3882,10 +4068,10 @@
         <v>2.88</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
@@ -3894,10 +4080,10 @@
         <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="O32" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="P32" t="n">
         <v>1.4</v>
@@ -4364,10 +4550,10 @@
         <v>2.05</v>
       </c>
       <c r="H36" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
@@ -4382,10 +4568,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -4400,7 +4586,7 @@
         <v>2.1</v>
       </c>
       <c r="T36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U36" t="n">
         <v>11</v>
@@ -4418,10 +4604,10 @@
         <v>23</v>
       </c>
       <c r="Z36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB36" t="n">
         <v>13</v>
@@ -4436,19 +4622,19 @@
         <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG36" t="n">
         <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37">

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -719,13 +719,13 @@
         <v>251</v>
       </c>
       <c r="AE2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
         <v>34</v>
@@ -912,10 +912,10 @@
         <v>2.63</v>
       </c>
       <c r="N4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
         <v>1.53</v>
@@ -942,7 +942,7 @@
         <v>21</v>
       </c>
       <c r="X4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>41</v>
@@ -1011,76 +1011,76 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>2.52</v>
+        <v>2.67</v>
       </c>
       <c r="N5" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="R5" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="S5" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="T5" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="U5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="V5" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W5" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AC5" t="n">
         <v>175</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG5" t="n">
         <v>23</v>
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -1141,10 +1141,10 @@
         <v>1.47</v>
       </c>
       <c r="M6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="N6" t="n">
         <v>2.32</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.35</v>
       </c>
       <c r="O6" t="n">
         <v>1.47</v>
@@ -1153,28 +1153,28 @@
         <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="S6" t="n">
         <v>1.6</v>
       </c>
       <c r="T6" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="U6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="V6" t="n">
         <v>9.25</v>
       </c>
-      <c r="V6" t="n">
-        <v>9.75</v>
-      </c>
       <c r="W6" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="X6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
         <v>45</v>
@@ -1183,32 +1183,32 @@
         <v>6.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
         <v>120</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI6" t="n">
         <v>40</v>
       </c>
-      <c r="AI6" t="n">
-        <v>35</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1485,12 +1485,12 @@
         <v>3.7</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M9" t="n">
         <v>3.65</v>
@@ -1510,7 +1510,7 @@
         <v>2.15</v>
       </c>
       <c r="T9" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="U9" t="n">
         <v>10.75</v>
@@ -1522,13 +1522,13 @@
         <v>18</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
         <v>7.4</v>
@@ -1555,10 +1555,10 @@
         <v>45</v>
       </c>
       <c r="AI9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1927,82 +1927,82 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.02</v>
+        <v>2.15</v>
       </c>
       <c r="H13" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I13" t="n">
         <v>3.15</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.4</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O13" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P13" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.47</v>
+        <v>2.37</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="U13" t="n">
+        <v>8</v>
+      </c>
+      <c r="V13" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="W13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z13" t="n">
         <v>7.9</v>
       </c>
-      <c r="V13" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="W13" t="n">
-        <v>15</v>
-      </c>
-      <c r="X13" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AA13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD13" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AI13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2037,55 +2037,55 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P14" t="n">
         <v>1.44</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="U14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="V14" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="W14" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Y14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AA14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AB14" t="n">
         <v>14</v>
@@ -2095,22 +2095,22 @@
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
@@ -2154,10 +2154,10 @@
         <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="L15" t="n">
         <v>1.4</v>
@@ -2166,10 +2166,10 @@
         <v>2.75</v>
       </c>
       <c r="N15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="O15" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P15" t="n">
         <v>1.5</v>
@@ -2184,7 +2184,7 @@
         <v>1.8</v>
       </c>
       <c r="T15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
@@ -2202,7 +2202,7 @@
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>6</v>
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="AD15" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AE15" t="n">
         <v>6.5</v>
@@ -2288,10 +2288,10 @@
         <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2389,19 +2389,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.1</v>
+        <v>2.77</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
       </c>
       <c r="K17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.38</v>
@@ -2410,7 +2410,7 @@
         <v>2.82</v>
       </c>
       <c r="N17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.65</v>
@@ -2425,28 +2425,28 @@
         <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T17" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="U17" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="V17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W17" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="X17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
         <v>32</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA17" t="n">
         <v>5.9</v>
@@ -2458,25 +2458,25 @@
         <v>75</v>
       </c>
       <c r="AD17" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.75</v>
+        <v>7.8</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -2520,34 +2520,34 @@
         <v>3.7</v>
       </c>
       <c r="J18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="K18" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M18" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="P18" t="n">
         <v>1.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T18" t="n">
         <v>6.1</v>
@@ -2565,38 +2565,40 @@
         <v>17.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA18" t="n">
         <v>6.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD18" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>800</v>
+      </c>
       <c r="AE18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>55</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19">
@@ -3138,10 +3140,10 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U23" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="V23" t="n">
         <v>7.7</v>
@@ -3153,10 +3155,10 @@
         <v>14</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AA23" t="n">
         <v>5.9</v>
@@ -3171,22 +3173,22 @@
         <v>175</v>
       </c>
       <c r="AE23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF23" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG23" t="n">
         <v>8.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
@@ -3221,13 +3223,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.87</v>
+        <v>2.05</v>
       </c>
       <c r="H24" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -3248,55 +3250,55 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="U24" t="n">
-        <v>7.8</v>
+        <v>8.75</v>
       </c>
       <c r="V24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="W24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X24" t="n">
         <v>13</v>
-      </c>
-      <c r="X24" t="n">
-        <v>12</v>
       </c>
       <c r="Y24" t="n">
         <v>20</v>
       </c>
       <c r="Z24" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB24" t="n">
         <v>11</v>
       </c>
-      <c r="AA24" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>12</v>
-      </c>
       <c r="AC24" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AD24" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG24" t="n">
         <v>9.25</v>
       </c>
-      <c r="AF24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>10</v>
-      </c>
       <c r="AH24" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>24</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -3641,7 +3643,9 @@
       <c r="AC27" t="n">
         <v>67</v>
       </c>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>1000</v>
+      </c>
       <c r="AE27" t="n">
         <v>6.5</v>
       </c>
@@ -3708,10 +3712,10 @@
         <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="N28" t="n">
         <v>2.5</v>
@@ -3812,36 +3816,90 @@
           <t>Sol de America</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.45</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T29" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W29" t="n">
+        <v>37</v>
+      </c>
+      <c r="X29" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>120</v>
+      </c>
       <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="AE29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -3874,36 +3932,92 @@
           <t>Sp. Carapegua</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.77</v>
+      </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W30" t="n">
+        <v>25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>600</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -1011,13 +1011,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="N5" t="n">
         <v>2.05</v>
@@ -1040,22 +1040,22 @@
         <v>2.47</v>
       </c>
       <c r="R5" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
         <v>5.2</v>
       </c>
       <c r="U5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="V5" t="n">
         <v>8.75</v>
       </c>
       <c r="W5" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="X5" t="n">
         <v>14</v>
@@ -1067,17 +1067,17 @@
         <v>8</v>
       </c>
       <c r="AA5" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF5" t="n">
         <v>40</v>
@@ -1127,79 +1127,79 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="H6" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M6" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="N6" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="S6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
         <v>5.6</v>
       </c>
       <c r="U6" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="V6" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="W6" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Y6" t="n">
         <v>45</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB6" t="n">
         <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AF6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH6" t="n">
         <v>50</v>
@@ -1365,86 +1365,86 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="M8" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="N8" t="n">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="O8" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="T8" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="U8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="V8" t="n">
         <v>8.25</v>
       </c>
       <c r="W8" t="n">
+        <v>14</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE8" t="n">
         <v>13.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>500</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG8" t="n">
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI8" t="n">
         <v>35</v>
       </c>
       <c r="AJ8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -1479,13 +1479,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1513,25 +1513,25 @@
         <v>9.5</v>
       </c>
       <c r="U9" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1546,10 +1546,10 @@
         <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AH9" t="n">
         <v>45</v>
@@ -1593,34 +1593,38 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I10" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3.6</v>
+      </c>
       <c r="N10" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O10" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="T10" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="U10" t="n">
         <v>8.25</v>
@@ -1629,46 +1633,46 @@
         <v>8</v>
       </c>
       <c r="W10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y10" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AB10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD10" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AE10" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AG10" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI10" t="n">
         <v>45</v>
       </c>
       <c r="AJ10" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
@@ -1703,10 +1707,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H11" t="n">
-        <v>4.15</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
         <v>1.57</v>
@@ -1719,7 +1723,7 @@
         <v>1.44</v>
       </c>
       <c r="O11" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
@@ -1730,31 +1734,31 @@
         <v>2.25</v>
       </c>
       <c r="T11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="U11" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="V11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="W11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="X11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="n">
         <v>35</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
         <v>8.75</v>
       </c>
       <c r="AB11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC11" t="n">
         <v>45</v>
@@ -1763,19 +1767,19 @@
         <v>250</v>
       </c>
       <c r="AE11" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
         <v>8.25</v>
       </c>
       <c r="AH11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AJ11" t="n">
         <v>18</v>
@@ -1927,13 +1931,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
         <v>3.05</v>
       </c>
       <c r="I13" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1946,33 +1950,33 @@
         <v>1.6</v>
       </c>
       <c r="P13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
       <c r="T13" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="U13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="W13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y13" t="n">
         <v>26</v>
       </c>
       <c r="Z13" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA13" t="n">
         <v>5.3</v>
@@ -1987,19 +1991,19 @@
         <v>450</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AF13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG13" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AH13" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
         <v>30</v>
@@ -2037,49 +2041,49 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O14" t="n">
         <v>1.57</v>
       </c>
       <c r="P14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="U14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="V14" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="W14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="n">
         <v>7.8</v>
@@ -2088,23 +2092,23 @@
         <v>5.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC14" t="n">
         <v>70</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AH14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
         <v>14</v>
@@ -2395,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2410,7 +2414,7 @@
         <v>2.82</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O17" t="n">
         <v>1.65</v>
@@ -2550,10 +2554,10 @@
         <v>1.78</v>
       </c>
       <c r="T18" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="U18" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="V18" t="n">
         <v>8.75</v>
@@ -2562,7 +2566,7 @@
         <v>16.5</v>
       </c>
       <c r="X18" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y18" t="n">
         <v>32</v>
@@ -2580,13 +2584,13 @@
         <v>90</v>
       </c>
       <c r="AD18" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
@@ -2595,7 +2599,7 @@
         <v>55</v>
       </c>
       <c r="AI18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
         <v>50</v>
@@ -3223,23 +3227,23 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="H24" t="n">
         <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="O24" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="P24" t="n">
         <v>1.37</v>
@@ -3250,25 +3254,25 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="U24" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="V24" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="W24" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="X24" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z24" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AA24" t="n">
         <v>5.8</v>
@@ -3280,25 +3284,25 @@
         <v>40</v>
       </c>
       <c r="AD24" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AE24" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AJ24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -3348,10 +3352,10 @@
         <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M25" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N25" t="n">
         <v>2.6</v>
@@ -4173,19 +4177,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K32" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
@@ -4200,10 +4204,10 @@
         <v>1.88</v>
       </c>
       <c r="P32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
         <v>1.73</v>
@@ -4218,10 +4222,10 @@
         <v>12</v>
       </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X32" t="n">
         <v>19</v>
@@ -4251,7 +4255,7 @@
         <v>15</v>
       </c>
       <c r="AG32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
         <v>29</v>
@@ -4417,13 +4421,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
         <v>1.05</v>
@@ -4450,25 +4454,25 @@
         <v>3</v>
       </c>
       <c r="R34" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T34" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W34" t="n">
         <v>21</v>
       </c>
       <c r="X34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y34" t="n">
         <v>26</v>
@@ -4492,19 +4496,19 @@
         <v>10</v>
       </c>
       <c r="AF34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG34" t="n">
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
         <v>23</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35">
@@ -4539,13 +4543,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H35" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -4572,22 +4576,22 @@
         <v>3.5</v>
       </c>
       <c r="R35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T35" t="n">
         <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
       </c>
       <c r="W35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X35" t="n">
         <v>15</v>
@@ -4608,25 +4612,25 @@
         <v>34</v>
       </c>
       <c r="AD35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI35" t="n">
         <v>21</v>
       </c>
-      <c r="AG35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
         <v>23</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="36">

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
@@ -808,7 +808,7 @@
         <v>2.2</v>
       </c>
       <c r="T3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="U3" t="n">
         <v>13</v>
@@ -823,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
         <v>13</v>
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>1.1</v>
@@ -930,10 +930,10 @@
         <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="V4" t="n">
         <v>10</v>
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -967,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>34</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
         <v>41</v>
@@ -1127,88 +1127,88 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="N6" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O6" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.52</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T6" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="U6" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V6" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="W6" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="X6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB6" t="n">
         <v>22</v>
       </c>
-      <c r="Y6" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>20</v>
-      </c>
       <c r="AC6" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI6" t="n">
         <v>40</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -2393,13 +2393,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="H17" t="n">
         <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="J17" t="n">
         <v>1.08</v>
@@ -2429,22 +2429,22 @@
         <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T17" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="U17" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="V17" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="n">
         <v>32</v>
@@ -2465,22 +2465,22 @@
         <v>600</v>
       </c>
       <c r="AE17" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AF17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AH17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ17" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -2757,25 +2757,25 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H20" t="n">
         <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="N20" t="n">
         <v>2.15</v>
@@ -2784,40 +2784,40 @@
         <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T20" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="U20" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="V20" t="n">
         <v>8.75</v>
       </c>
       <c r="W20" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z20" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB20" t="n">
         <v>23</v>
@@ -2827,22 +2827,22 @@
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AI20" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="21">
@@ -3008,22 +3008,22 @@
         <v>1.9</v>
       </c>
       <c r="J22" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L22" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M22" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N22" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O22" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
@@ -3352,10 +3352,10 @@
         <v>7</v>
       </c>
       <c r="L25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M25" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N25" t="n">
         <v>2.6</v>
@@ -4436,16 +4436,16 @@
         <v>11</v>
       </c>
       <c r="L34" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="P34" t="n">
         <v>1.36</v>
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I35" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J35" t="n">
         <v>1.03</v>
@@ -4585,7 +4585,7 @@
         <v>11</v>
       </c>
       <c r="U35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="V35" t="n">
         <v>9</v>
@@ -4615,22 +4615,22 @@
         <v>101</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF35" t="n">
         <v>19</v>
       </c>
       <c r="AG35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
         <v>34</v>
       </c>
       <c r="AI35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -647,13 +647,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.07</v>
@@ -668,34 +668,34 @@
         <v>3.25</v>
       </c>
       <c r="N2" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
         <v>19</v>
@@ -716,25 +716,25 @@
         <v>51</v>
       </c>
       <c r="AD2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AE2" t="n">
         <v>9.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -790,10 +790,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -2041,20 +2041,20 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O14" t="n">
         <v>1.57</v>
@@ -2063,24 +2063,24 @@
         <v>1.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U14" t="n">
         <v>14.5</v>
       </c>
       <c r="V14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="W14" t="n">
         <v>40</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
@@ -2095,23 +2095,23 @@
         <v>14.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AG14" t="n">
         <v>7.4</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>27</v>
@@ -2149,13 +2149,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -2164,31 +2164,31 @@
         <v>7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N15" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R15" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S15" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="T15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
@@ -2206,19 +2206,19 @@
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AB15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AC15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD15" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AE15" t="n">
         <v>6.5</v>
@@ -2227,16 +2227,16 @@
         <v>10</v>
       </c>
       <c r="AG15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -2393,94 +2393,94 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="J17" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="N17" t="n">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P17" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S17" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="U17" t="n">
+        <v>10</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W17" t="n">
+        <v>20</v>
+      </c>
+      <c r="X17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG17" t="n">
         <v>11.25</v>
       </c>
-      <c r="V17" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="W17" t="n">
-        <v>25</v>
-      </c>
-      <c r="X17" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>32</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>600</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>10.75</v>
-      </c>
       <c r="AH17" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18">
@@ -2515,94 +2515,94 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L18" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M18" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="P18" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="T18" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="U18" t="n">
         <v>8.5</v>
       </c>
       <c r="V18" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="X18" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AA18" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AE18" t="n">
-        <v>9.25</v>
+        <v>10.75</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19">
@@ -2637,92 +2637,94 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="K19" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="N19" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="O19" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="P19" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.42</v>
+        <v>2.65</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05</v>
+        <v>1.87</v>
       </c>
       <c r="S19" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="T19" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="U19" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="V19" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="W19" t="n">
+        <v>13</v>
+      </c>
+      <c r="X19" t="n">
         <v>14</v>
       </c>
-      <c r="X19" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Y19" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="Z19" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD19" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>700</v>
+      </c>
       <c r="AE19" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AG19" t="n">
         <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="n">
         <v>45</v>
       </c>
       <c r="AJ19" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -2763,7 +2765,7 @@
         <v>3.65</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -3254,10 +3256,10 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="U24" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="V24" t="n">
         <v>7.7</v>
@@ -3275,7 +3277,7 @@
         <v>10.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AB24" t="n">
         <v>11</v>
@@ -3284,13 +3286,13 @@
         <v>40</v>
       </c>
       <c r="AD24" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AE24" t="n">
         <v>8.25</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
         <v>8.5</v>
@@ -4055,31 +4057,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="I31" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
         <v>1.01</v>
       </c>
       <c r="K31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="M31" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="N31" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="O31" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P31" t="n">
         <v>1.17</v>
@@ -4088,61 +4090,61 @@
         <v>4.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="T31" t="n">
         <v>13</v>
       </c>
       <c r="U31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V31" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="W31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X31" t="n">
         <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z31" t="n">
         <v>29</v>
       </c>
       <c r="AA31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AI31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -4177,13 +4179,13 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="J32" t="n">
         <v>1.03</v>
@@ -4198,10 +4200,10 @@
         <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P32" t="n">
         <v>1.36</v>
@@ -4216,22 +4218,22 @@
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="U32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V32" t="n">
         <v>9.5</v>
       </c>
       <c r="W32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y32" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="n">
         <v>10</v>
@@ -4249,19 +4251,19 @@
         <v>500</v>
       </c>
       <c r="AE32" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG32" t="n">
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ32" t="n">
         <v>34</v>
@@ -4299,31 +4301,31 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H33" t="n">
         <v>7</v>
       </c>
-      <c r="H33" t="n">
-        <v>5.75</v>
-      </c>
       <c r="I33" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="J33" t="n">
         <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L33" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="O33" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P33" t="n">
         <v>1.17</v>
@@ -4332,25 +4334,25 @@
         <v>4.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="S33" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="U33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="V33" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="W33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="X33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="Y33" t="n">
         <v>41</v>
@@ -4359,34 +4361,34 @@
         <v>29</v>
       </c>
       <c r="AA33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB33" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI33" t="n">
         <v>10</v>
       </c>
       <c r="AJ33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -4442,10 +4444,10 @@
         <v>3.4</v>
       </c>
       <c r="N34" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P34" t="n">
         <v>1.36</v>
@@ -4555,19 +4557,19 @@
         <v>1.03</v>
       </c>
       <c r="K35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L35" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O35" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="P35" t="n">
         <v>1.29</v>
@@ -4665,13 +4667,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>3.6</v>
       </c>
       <c r="I36" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J36" t="n">
         <v>1.04</v>
@@ -4686,10 +4688,10 @@
         <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O36" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="P36" t="n">
         <v>1.33</v>
@@ -4704,13 +4706,13 @@
         <v>2.1</v>
       </c>
       <c r="T36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="U36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="V36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="W36" t="n">
         <v>19</v>
@@ -4740,16 +4742,16 @@
         <v>12</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG36" t="n">
         <v>12</v>
       </c>
       <c r="AH36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ36" t="n">
         <v>29</v>
@@ -4787,10 +4789,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I37" t="n">
         <v>4.75</v>
@@ -4808,16 +4810,16 @@
         <v>3.75</v>
       </c>
       <c r="N37" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O37" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R37" t="n">
         <v>1.8</v>
@@ -4835,7 +4837,7 @@
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
@@ -4862,7 +4864,7 @@
         <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AG37" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -650,7 +650,7 @@
         <v>2.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>3.5</v>
@@ -659,7 +659,7 @@
         <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -668,10 +668,10 @@
         <v>3.25</v>
       </c>
       <c r="N2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>6</v>
@@ -784,16 +784,16 @@
         <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="O3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>1.33</v>
@@ -891,19 +891,19 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.44</v>
@@ -948,13 +948,13 @@
         <v>41</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA4" t="n">
         <v>6</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
         <v>67</v>
@@ -970,7 +970,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="n">
         <v>34</v>
@@ -2041,13 +2041,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
         <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -2063,24 +2063,24 @@
         <v>1.42</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="V14" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="W14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
         <v>40</v>
@@ -2099,19 +2099,19 @@
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AF14" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
         <v>27</v>
@@ -2149,13 +2149,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H15" t="n">
         <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
         <v>1.1</v>
@@ -2176,19 +2176,19 @@
         <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="U15" t="n">
         <v>15</v>
@@ -2206,7 +2206,7 @@
         <v>41</v>
       </c>
       <c r="Z15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
         <v>5.5</v>
@@ -2230,13 +2230,13 @@
         <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2292,10 +2292,10 @@
         <v>3</v>
       </c>
       <c r="N16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P16" t="n">
         <v>1.44</v>
@@ -2521,13 +2521,13 @@
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
       </c>
       <c r="K18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="L18" t="n">
         <v>1.34</v>
@@ -2545,7 +2545,7 @@
         <v>1.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="R18" t="n">
         <v>1.85</v>
@@ -2554,7 +2554,7 @@
         <v>1.85</v>
       </c>
       <c r="T18" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U18" t="n">
         <v>8.5</v>
@@ -2563,7 +2563,7 @@
         <v>8.5</v>
       </c>
       <c r="W18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="X18" t="n">
         <v>15.5</v>
@@ -2572,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="Z18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AA18" t="n">
         <v>6.5</v>
@@ -2581,25 +2581,25 @@
         <v>15.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="n">
         <v>700</v>
       </c>
       <c r="AE18" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
         <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ18" t="n">
         <v>45</v>
@@ -3007,7 +3007,7 @@
         <v>3.7</v>
       </c>
       <c r="I22" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J22" t="n">
         <v>1.04</v>
@@ -3034,13 +3034,13 @@
         <v>3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S22" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U22" t="n">
         <v>21</v>
@@ -3070,7 +3070,7 @@
         <v>51</v>
       </c>
       <c r="AD22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AE22" t="n">
         <v>7.5</v>
@@ -4060,10 +4060,10 @@
         <v>1.3</v>
       </c>
       <c r="H31" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
         <v>1.01</v>
@@ -4090,22 +4090,22 @@
         <v>4.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S31" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="T31" t="n">
         <v>13</v>
       </c>
       <c r="U31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V31" t="n">
         <v>10</v>
       </c>
-      <c r="V31" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X31" t="n">
         <v>10</v>
@@ -4120,13 +4120,13 @@
         <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -4138,13 +4138,13 @@
         <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI31" t="n">
         <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -4188,10 +4188,10 @@
         <v>3.3</v>
       </c>
       <c r="J32" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K32" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="L32" t="n">
         <v>1.29</v>
@@ -4200,10 +4200,10 @@
         <v>3.5</v>
       </c>
       <c r="N32" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="O32" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P32" t="n">
         <v>1.36</v>
@@ -4301,19 +4301,19 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I33" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="J33" t="n">
         <v>1.01</v>
       </c>
       <c r="K33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L33" t="n">
         <v>1.07</v>
@@ -4334,10 +4334,10 @@
         <v>4.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T33" t="n">
         <v>34</v>
@@ -4367,22 +4367,22 @@
         <v>21</v>
       </c>
       <c r="AC33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE33" t="n">
         <v>13</v>
       </c>
       <c r="AF33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG33" t="n">
         <v>10</v>
       </c>
       <c r="AH33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI33" t="n">
         <v>10</v>
@@ -4444,10 +4444,10 @@
         <v>3.4</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="P34" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -656,10 +656,10 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K2" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -668,10 +668,10 @@
         <v>3.25</v>
       </c>
       <c r="N2" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O2" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -769,19 +769,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>1.04</v>
       </c>
       <c r="K3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L3" t="n">
         <v>1.25</v>
@@ -802,13 +802,13 @@
         <v>3.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="U3" t="n">
         <v>13</v>
@@ -826,7 +826,7 @@
         <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
         <v>7</v>
@@ -850,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="AH3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1482,7 +1482,7 @@
         <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>3.25</v>
@@ -1504,22 +1504,22 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T9" t="n">
         <v>9.5</v>
       </c>
       <c r="U9" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V9" t="n">
         <v>8.5</v>
       </c>
       <c r="W9" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1528,10 +1528,10 @@
         <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1817,13 +1817,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -1845,7 +1845,7 @@
         <v>1.65</v>
       </c>
       <c r="S12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>8.25</v>
@@ -1857,25 +1857,25 @@
         <v>9</v>
       </c>
       <c r="W12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y12" t="n">
         <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AB12" t="n">
         <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AD12" t="n">
         <v>400</v>
@@ -1893,7 +1893,7 @@
         <v>35</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
         <v>30</v>
@@ -2399,7 +2399,7 @@
         <v>3.15</v>
       </c>
       <c r="I17" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
@@ -2432,10 +2432,10 @@
         <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="U17" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V17" t="n">
         <v>8.75</v>
@@ -2444,10 +2444,10 @@
         <v>20</v>
       </c>
       <c r="X17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z17" t="n">
         <v>6.9</v>
@@ -2456,7 +2456,7 @@
         <v>6.2</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
         <v>65</v>
@@ -2465,22 +2465,22 @@
         <v>500</v>
       </c>
       <c r="AE17" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AF17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AH17" t="n">
         <v>45</v>
       </c>
       <c r="AI17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AJ17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -2521,7 +2521,7 @@
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
@@ -2554,7 +2554,7 @@
         <v>1.85</v>
       </c>
       <c r="T18" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="U18" t="n">
         <v>8.5</v>
@@ -2587,19 +2587,19 @@
         <v>700</v>
       </c>
       <c r="AE18" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
         <v>60</v>
       </c>
       <c r="AI18" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="n">
         <v>45</v>
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H20" t="n">
         <v>3.65</v>
@@ -2792,7 +2792,7 @@
         <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S20" t="n">
         <v>1.6</v>
@@ -2807,7 +2807,7 @@
         <v>8.75</v>
       </c>
       <c r="W20" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="X20" t="n">
         <v>14.5</v>
@@ -2822,7 +2822,7 @@
         <v>7.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
         <v>150</v>
@@ -3010,22 +3010,22 @@
         <v>1.85</v>
       </c>
       <c r="J22" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L22" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M22" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N22" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="P22" t="n">
         <v>1.36</v>
@@ -3149,7 +3149,7 @@
         <v>8.75</v>
       </c>
       <c r="U23" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="V23" t="n">
         <v>7.7</v>
@@ -3164,7 +3164,7 @@
         <v>17.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AA23" t="n">
         <v>5.9</v>
@@ -3179,10 +3179,10 @@
         <v>175</v>
       </c>
       <c r="AE23" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF23" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AG23" t="n">
         <v>8.5</v>
@@ -3191,10 +3191,10 @@
         <v>25</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="24">
@@ -3232,7 +3232,7 @@
         <v>2.25</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I24" t="n">
         <v>2.75</v>
@@ -3256,10 +3256,10 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="U24" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="V24" t="n">
         <v>7.7</v>
@@ -3271,7 +3271,7 @@
         <v>14.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z24" t="n">
         <v>10.5</v>
@@ -3289,22 +3289,22 @@
         <v>250</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AH24" t="n">
         <v>25</v>
       </c>
       <c r="AI24" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
@@ -3339,13 +3339,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H25" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J25" t="n">
         <v>1.1</v>
@@ -3372,10 +3372,10 @@
         <v>2.25</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T25" t="n">
         <v>6.5</v>
@@ -3387,7 +3387,7 @@
         <v>11</v>
       </c>
       <c r="W25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X25" t="n">
         <v>26</v>
@@ -3396,26 +3396,26 @@
         <v>41</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="n">
         <v>7</v>
       </c>
       <c r="AF25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG25" t="n">
         <v>12</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>29</v>
@@ -3471,7 +3471,7 @@
         <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
         <v>1.4</v>
@@ -3718,10 +3718,10 @@
         <v>7</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M28" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N28" t="n">
         <v>2.5</v>
@@ -3939,90 +3939,90 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.37</v>
+        <v>2.27</v>
       </c>
       <c r="H30" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I30" t="n">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M30" t="n">
-        <v>2.87</v>
+        <v>2.6</v>
       </c>
       <c r="N30" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="O30" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="S30" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="T30" t="n">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="U30" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="V30" t="n">
         <v>9.25</v>
       </c>
       <c r="W30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Z30" t="n">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AC30" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AD30" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="AE30" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF30" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AI30" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AJ30" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
@@ -4057,13 +4057,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J31" t="n">
         <v>1.01</v>
@@ -4078,16 +4078,16 @@
         <v>7</v>
       </c>
       <c r="N31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="O31" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P31" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="R31" t="n">
         <v>1.57</v>
@@ -4099,37 +4099,37 @@
         <v>13</v>
       </c>
       <c r="U31" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" t="n">
         <v>9.5</v>
       </c>
-      <c r="V31" t="n">
-        <v>10</v>
-      </c>
       <c r="W31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
         <v>19</v>
       </c>
       <c r="Z31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC31" t="n">
         <v>41</v>
       </c>
       <c r="AD31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AE31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF31" t="n">
         <v>41</v>
@@ -4138,13 +4138,13 @@
         <v>21</v>
       </c>
       <c r="AH31" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI31" t="n">
         <v>41</v>
       </c>
       <c r="AJ31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -4566,10 +4566,10 @@
         <v>4.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O35" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="P35" t="n">
         <v>1.29</v>
@@ -4801,7 +4801,7 @@
         <v>1.04</v>
       </c>
       <c r="K37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L37" t="n">
         <v>1.25</v>
@@ -4837,19 +4837,19 @@
         <v>8.5</v>
       </c>
       <c r="W37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
       </c>
       <c r="Y37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z37" t="n">
         <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AB37" t="n">
         <v>17</v>
@@ -4864,7 +4864,7 @@
         <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG37" t="n">
         <v>15</v>

--- a/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-05-21.xlsx
@@ -656,10 +656,10 @@
         <v>3.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
         <v>1.33</v>
@@ -668,10 +668,10 @@
         <v>3.25</v>
       </c>
       <c r="N2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="P2" t="n">
         <v>1.44</v>
@@ -1127,88 +1127,88 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="I6" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="M6" t="n">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>2.32</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="P6" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="S6" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="T6" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="U6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V6" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="W6" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>19.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>6.8</v>
+        <v>8.25</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI6" t="n">
         <v>45</v>
       </c>
-      <c r="AI6" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
@@ -1365,13 +1365,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1390,10 +1390,10 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
         <v>8.25</v>
@@ -1408,13 +1408,13 @@
         <v>14</v>
       </c>
       <c r="X8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>22</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA8" t="n">
         <v>7.7</v>
@@ -1438,7 +1438,7 @@
         <v>13.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI8" t="n">
         <v>35</v>
@@ -1482,35 +1482,35 @@
         <v>1.98</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="N9" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O9" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="U9" t="n">
         <v>11.25</v>
@@ -1522,16 +1522,16 @@
         <v>19</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AB9" t="n">
         <v>12.5</v>
@@ -1540,13 +1540,13 @@
         <v>45</v>
       </c>
       <c r="AD9" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AE9" t="n">
         <v>12.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AG9" t="n">
         <v>11.25</v>
@@ -1555,10 +1555,10 @@
         <v>45</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -2041,23 +2041,23 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P14" t="n">
         <v>1.42</v>
@@ -2068,50 +2068,50 @@
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="U14" t="n">
+        <v>13</v>
+      </c>
+      <c r="V14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W14" t="n">
+        <v>35</v>
+      </c>
+      <c r="X14" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB14" t="n">
         <v>14</v>
       </c>
-      <c r="V14" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="W14" t="n">
-        <v>37</v>
-      </c>
-      <c r="X14" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AC14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="AF14" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AG14" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AH14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
         <v>27</v>
@@ -2432,10 +2432,10 @@
         <v>1.95</v>
       </c>
       <c r="T17" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="U17" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V17" t="n">
         <v>8.75</v>
@@ -2521,7 +2521,7 @@
         <v>3.3</v>
       </c>
       <c r="I18" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="J18" t="n">
         <v>1.07</v>
@@ -4566,10 +4566,10 @@
         <v>4.5</v>
       </c>
       <c r="N35" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="O35" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P35" t="n">
         <v>1.29</v>
